--- a/Stool IDs.xlsx
+++ b/Stool IDs.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2705132-4F79-4AF4-A330-A3731B1B7459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4980344-A1B1-4F89-987D-2748BD8D2524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
-    <sheet name="ID Labeling Key" sheetId="10" r:id="rId2"/>
-    <sheet name="Patient Enrollment" sheetId="1" r:id="rId3"/>
-    <sheet name="DNA Extraction" sheetId="13" r:id="rId4"/>
-    <sheet name="1=Basline (A B)" sheetId="2" r:id="rId5"/>
-    <sheet name="2=pre-treatment after surgery" sheetId="3" r:id="rId6"/>
-    <sheet name="Timepoint Summary" sheetId="12" r:id="rId7"/>
+    <sheet name="Timepoint Summary" sheetId="12" r:id="rId2"/>
+    <sheet name="ID Labeling Key" sheetId="10" r:id="rId3"/>
+    <sheet name="Patient Enrollment" sheetId="1" r:id="rId4"/>
+    <sheet name="DNA Extraction" sheetId="13" r:id="rId5"/>
+    <sheet name="1=Basline (A B)" sheetId="2" r:id="rId6"/>
+    <sheet name="2=pre-treatment after surgery" sheetId="3" r:id="rId7"/>
     <sheet name="3.1=day before 2nd round" sheetId="4" r:id="rId8"/>
     <sheet name="3.2=day after 2nd round" sheetId="5" r:id="rId9"/>
     <sheet name="4.1=day after 6th round" sheetId="6" r:id="rId10"/>
@@ -23,7 +23,7 @@
     <sheet name="5.2=day after 10th round" sheetId="9" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Timepoint Summary'!$A$1:$N$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Timepoint Summary'!$A$1:$N$65</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3042" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="440">
   <si>
     <t>ID</t>
   </si>
@@ -1421,6 +1421,36 @@
   </si>
   <si>
     <t>75-MDCOL053-1-1-1-Unknown</t>
+  </si>
+  <si>
+    <t>Timepoint2</t>
+  </si>
+  <si>
+    <t>SampleNumber</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Day after 14th round</t>
+  </si>
+  <si>
+    <t>Pre-Treatment/After Surgery</t>
+  </si>
+  <si>
+    <t>Day after 18th round</t>
+  </si>
+  <si>
+    <t>Day before 22nd round</t>
   </si>
 </sst>
 </file>
@@ -1518,7 +1548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1654,6 +1684,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,7 +1889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2252,8 +2288,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2263,6 +2326,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF5FF8C"/>
       <color rgb="FF74FC74"/>
       <color rgb="FF99C78F"/>
       <color rgb="FFDB9797"/>
@@ -2271,7 +2335,6 @@
       <color rgb="FFA8FFFB"/>
       <color rgb="FFF294F7"/>
       <color rgb="FFFFDF8F"/>
-      <color rgb="FFF5FF8C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2621,112 +2684,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1195A62-A766-4765-82E3-FB5FD40FE6B8}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="105.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="105.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:19" ht="15.75">
+      <c r="A1" s="144" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="144" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="145" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="145" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="145" t="s">
         <v>209</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="145" t="s">
         <v>210</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="145" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="146" t="s">
         <v>212</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="146" t="s">
         <v>213</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="146" t="s">
         <v>214</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="146" t="s">
         <v>215</v>
       </c>
-      <c r="L1" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="M1" s="73" t="s">
+      <c r="L1" s="146" t="s">
+        <v>430</v>
+      </c>
+      <c r="M1" s="146" t="s">
+        <v>431</v>
+      </c>
+      <c r="N1" s="146" t="s">
         <v>216</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="O1" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="O1" s="95" t="s">
+      <c r="P1" s="146" t="s">
         <v>218</v>
       </c>
-      <c r="P1" s="95" t="s">
+      <c r="Q1" s="146" t="s">
         <v>219</v>
       </c>
-      <c r="Q1" s="95" t="s">
+      <c r="R1" s="146" t="s">
         <v>220</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="S1" s="146" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="130" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="128">
+      <c r="D2" s="25">
         <v>444</v>
       </c>
-      <c r="E2" s="128">
+      <c r="E2" s="25">
         <v>1.89</v>
       </c>
-      <c r="F2" s="128">
+      <c r="F2" s="25">
         <v>1.55</v>
       </c>
-      <c r="G2" s="128" t="s">
+      <c r="G2" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="25">
         <v>1</v>
       </c>
       <c r="I2" s="25" t="s">
@@ -2741,46 +2809,47 @@
       <c r="L2" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="N2" s="116" t="s">
+      <c r="O2" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="O2" s="78">
+      <c r="P2" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P2" s="96">
+      <c r="Q2" s="25">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Q2" s="78">
+      <c r="R2" s="25">
         <v>9.3000000000000007</v>
       </c>
-      <c r="R2" s="26"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75">
-      <c r="A3" s="131" t="s">
+      <c r="S2" s="25"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="124">
+      <c r="D3" s="25">
         <v>436.2</v>
       </c>
-      <c r="E3" s="124">
+      <c r="E3" s="25">
         <v>1.91</v>
       </c>
-      <c r="F3" s="124">
+      <c r="F3" s="25">
         <v>2.04</v>
       </c>
-      <c r="G3" s="125" t="s">
+      <c r="G3" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="25">
         <v>3</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -2795,215 +2864,221 @@
       <c r="L3" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="N3" s="116" t="s">
+      <c r="O3" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="O3" s="78">
+      <c r="P3" s="25">
         <v>2</v>
       </c>
-      <c r="P3" s="96">
+      <c r="Q3" s="25">
         <v>9</v>
       </c>
-      <c r="Q3" s="78">
+      <c r="R3" s="25">
         <v>10</v>
       </c>
-      <c r="R3" s="26"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75">
-      <c r="A4" s="132" t="s">
-        <v>231</v>
-      </c>
-      <c r="B4" s="132" t="s">
-        <v>407</v>
-      </c>
-      <c r="C4" s="124">
-        <v>234</v>
-      </c>
-      <c r="D4" s="124">
-        <v>303</v>
-      </c>
-      <c r="E4" s="124">
-        <v>1.88</v>
-      </c>
-      <c r="F4" s="124">
-        <v>1.42</v>
-      </c>
-      <c r="G4" s="124" t="s">
+      <c r="S3" s="25"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="25">
+        <v>358.9</v>
+      </c>
+      <c r="E4" s="25">
+        <v>1.89</v>
+      </c>
+      <c r="F4" s="25">
+        <v>1.95</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" s="25">
+        <v>11</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O4" s="116" t="s">
+        <v>238</v>
+      </c>
+      <c r="P4" s="25">
+        <v>4.2</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>9</v>
+      </c>
+      <c r="R4" s="25">
+        <v>11</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="25">
+        <v>453.9</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="25">
+        <v>28</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="M5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="H4" s="27">
-        <v>5</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="N5" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O5" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="P5" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R5" s="25">
+        <v>11.9</v>
+      </c>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="25">
+        <v>443.2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="25">
+        <v>29</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="M4" s="28" t="s">
+      <c r="K6" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="N6" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="N4" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="O4" s="79">
-        <v>0.8</v>
-      </c>
-      <c r="P4" s="97">
+      <c r="O6" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="P6" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="Q6" s="25">
         <v>8.9</v>
       </c>
-      <c r="Q4" s="79">
-        <v>9.4</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
-      <c r="A5" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="B5" s="132" t="s">
-        <v>408</v>
-      </c>
-      <c r="C5" s="124">
-        <v>237</v>
-      </c>
-      <c r="D5" s="124">
-        <v>411</v>
-      </c>
-      <c r="E5" s="124">
-        <v>1.91</v>
-      </c>
-      <c r="F5" s="124">
-        <v>1.59</v>
-      </c>
-      <c r="G5" s="124" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="30">
-        <v>7</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="O5" s="80">
-        <v>1.4</v>
-      </c>
-      <c r="P5" s="98">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="80">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75">
-      <c r="A6" s="132" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="132" t="s">
-        <v>409</v>
-      </c>
-      <c r="C6" s="124">
-        <v>220</v>
-      </c>
-      <c r="D6" s="124">
-        <v>446</v>
-      </c>
-      <c r="E6" s="124">
-        <v>1.91</v>
-      </c>
-      <c r="F6" s="124">
-        <v>1.84</v>
-      </c>
-      <c r="G6" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" s="33">
-        <v>9</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="O6" s="81">
-        <v>4.3</v>
-      </c>
-      <c r="P6" s="99">
-        <v>8.5</v>
-      </c>
-      <c r="Q6" s="81">
-        <v>12</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75">
-      <c r="A7" s="131" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="131" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" s="129">
-        <v>358.9</v>
-      </c>
-      <c r="E7" s="129">
-        <v>1.89</v>
-      </c>
-      <c r="F7" s="129">
-        <v>1.95</v>
-      </c>
-      <c r="G7" s="124" t="s">
-        <v>238</v>
-      </c>
-      <c r="H7" s="24">
-        <v>11</v>
+      <c r="R6" s="25">
+        <v>9.9</v>
+      </c>
+      <c r="S6" s="25"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="25">
+        <v>434.4</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="25">
+        <v>30</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>6</v>
@@ -3012,1013 +3087,1026 @@
         <v>225</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="L7" s="25"/>
+        <v>271</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>439</v>
+      </c>
       <c r="M7" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="N7" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="N7" s="116" t="s">
-        <v>238</v>
-      </c>
-      <c r="O7" s="78">
-        <v>4.2</v>
-      </c>
-      <c r="P7" s="96">
+      <c r="O7" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>9.1</v>
+      </c>
+      <c r="R7" s="25">
+        <v>11</v>
+      </c>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="25">
+        <v>246.7</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1.89</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1.48</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="25">
+        <v>31</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>439</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O8" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R8" s="25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="25">
+        <v>320.8</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1.89</v>
+      </c>
+      <c r="F9" s="25">
+        <v>2.08</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="25">
+        <v>33</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="25">
+        <v>6.2</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O9" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="P9" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="Q9" s="25">
         <v>9</v>
       </c>
-      <c r="Q7" s="78">
+      <c r="R9" s="25">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" s="25">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1.88</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1.62</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H10" s="25">
+        <v>36</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O10" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="P10" s="116">
+        <v>1.4</v>
+      </c>
+      <c r="Q10" s="116">
+        <v>8.9</v>
+      </c>
+      <c r="R10" s="116">
+        <v>10</v>
+      </c>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="25">
+        <v>386.2</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1.76</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H11" s="25">
+        <v>40</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R11" s="25">
+        <v>9.4</v>
+      </c>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="25">
+        <v>240.2</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1.88</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H12" s="25">
+        <v>42</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="119" t="s">
+        <v>285</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O12" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="P12" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R12" s="25">
+        <v>9.4</v>
+      </c>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" s="37" customFormat="1" ht="15.75">
+      <c r="A13" s="147" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="147" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="148">
+        <v>198</v>
+      </c>
+      <c r="D13" s="148">
+        <v>226</v>
+      </c>
+      <c r="E13" s="148">
+        <v>1.9</v>
+      </c>
+      <c r="F13" s="148">
+        <v>1.62</v>
+      </c>
+      <c r="G13" s="148" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="37">
+        <v>14</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="P13" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="37">
+        <v>8.9</v>
+      </c>
+      <c r="R13" s="37">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="37" customFormat="1" ht="15.75">
+      <c r="A14" s="148" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="148" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="148" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="148">
+        <v>90.5</v>
+      </c>
+      <c r="E14" s="148">
+        <v>1.85</v>
+      </c>
+      <c r="F14" s="148">
+        <v>0.65</v>
+      </c>
+      <c r="G14" s="149" t="s">
+        <v>250</v>
+      </c>
+      <c r="H14" s="37">
+        <v>63</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K14" s="37">
+        <v>3.2</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="P14" s="37">
+        <v>1.8</v>
+      </c>
+      <c r="Q14" s="37">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R14" s="37">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="37" customFormat="1">
+      <c r="A15" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="150" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" s="150" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="150">
+        <v>120.4</v>
+      </c>
+      <c r="E15" s="150">
+        <v>1.87</v>
+      </c>
+      <c r="F15" s="37">
+        <v>2</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="H15" s="150">
+        <v>65</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K15" s="37">
+        <v>3.2</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="37" customFormat="1">
+      <c r="A16" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="37">
+        <v>17</v>
+      </c>
+      <c r="E16" s="37">
+        <v>1.85</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.32</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" s="37">
+        <v>68</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K16" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="37" customFormat="1">
+      <c r="A17" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="37">
+        <v>173.7</v>
+      </c>
+      <c r="E17" s="37">
+        <v>1.88</v>
+      </c>
+      <c r="F17" s="37">
+        <v>2.29</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="37">
+        <v>72</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K17" s="37">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="40">
+        <v>210.4</v>
+      </c>
+      <c r="E18" s="40">
+        <v>1.89</v>
+      </c>
+      <c r="F18" s="40">
+        <v>1.64</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="40">
+        <v>15</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="40">
+        <v>3.1</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="N18" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="P18" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="Q18" s="40">
+        <v>8.9</v>
+      </c>
+      <c r="R18" s="40">
+        <v>10.5</v>
+      </c>
+      <c r="S18" s="40"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="D19" s="40">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="E19" s="40">
+        <v>1.87</v>
+      </c>
+      <c r="F19" s="40">
+        <v>1.89</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="H19" s="40">
+        <v>66</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" s="40">
+        <v>223.6</v>
+      </c>
+      <c r="E20" s="40">
+        <v>1.87</v>
+      </c>
+      <c r="F20" s="40">
+        <v>1.92</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="H20" s="40">
+        <v>70</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="K20" s="40">
+        <v>3.2</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+    </row>
+    <row r="21" spans="1:19" s="52" customFormat="1">
+      <c r="A21" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="52">
+        <v>231.8</v>
+      </c>
+      <c r="E21" s="52">
+        <v>1.89</v>
+      </c>
+      <c r="F21" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="H21" s="52">
+        <v>45</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="M21" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="N21" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="O21" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="P21" s="52">
+        <v>1.3</v>
+      </c>
+      <c r="Q21" s="52">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R21" s="52">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S21" s="52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="43" customFormat="1">
+      <c r="A22" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="43">
+        <v>50</v>
+      </c>
+      <c r="E22" s="43">
+        <v>1.9</v>
+      </c>
+      <c r="F22" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" s="43">
+        <v>17</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="43">
+        <v>3.1</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="N22" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="P22" s="43">
+        <v>1.6</v>
+      </c>
+      <c r="Q22" s="43">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R22" s="43">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="43" customFormat="1">
+      <c r="A23" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="43">
+        <v>29.3</v>
+      </c>
+      <c r="E23" s="43">
+        <v>1.9</v>
+      </c>
+      <c r="F23" s="43">
+        <v>0.19</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H23" s="43">
+        <v>19</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="N23" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="P23" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="Q23" s="43">
+        <v>8.9</v>
+      </c>
+      <c r="R23" s="43">
         <v>11</v>
       </c>
-      <c r="R7" s="26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75">
-      <c r="A8" s="132" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="132" t="s">
-        <v>410</v>
-      </c>
-      <c r="C8" s="124">
-        <v>198</v>
-      </c>
-      <c r="D8" s="124">
-        <v>226</v>
-      </c>
-      <c r="E8" s="124">
-        <v>1.9</v>
-      </c>
-      <c r="F8" s="124">
-        <v>1.62</v>
-      </c>
-      <c r="G8" s="124" t="s">
-        <v>245</v>
-      </c>
-      <c r="H8" s="36">
-        <v>14</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="37" t="s">
+      <c r="S23" s="43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="43" customFormat="1">
+      <c r="A24" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="43">
+        <v>31.7</v>
+      </c>
+      <c r="E24" s="43">
+        <v>1.92</v>
+      </c>
+      <c r="F24" s="43">
+        <v>0.17</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H24" s="43">
+        <v>21</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="K8" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="L8" s="37" t="s">
+      <c r="K24" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M24" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="N24" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="O24" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="P24" s="43">
+        <v>1.4</v>
+      </c>
+      <c r="Q24" s="43">
+        <v>8.9</v>
+      </c>
+      <c r="R24" s="43">
+        <v>10.1</v>
+      </c>
+      <c r="S24" s="43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="43" customFormat="1">
+      <c r="A25" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="43">
+        <v>122.5</v>
+      </c>
+      <c r="E25" s="43">
+        <v>1.86</v>
+      </c>
+      <c r="F25" s="43">
+        <v>1.95</v>
+      </c>
+      <c r="G25" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="O8" s="82">
-        <v>1</v>
-      </c>
-      <c r="P8" s="100">
-        <v>8.9</v>
-      </c>
-      <c r="Q8" s="82">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="R8" s="38"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75">
-      <c r="A9" s="131" t="s">
-        <v>248</v>
-      </c>
-      <c r="B9" s="131" t="s">
-        <v>415</v>
-      </c>
-      <c r="C9" s="124" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="124">
-        <v>210.4</v>
-      </c>
-      <c r="E9" s="124">
+      <c r="H25" s="43">
+        <v>60</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K25" s="43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L25" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="M25" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="N25" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="O25" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="P25" s="43">
+        <v>5.2</v>
+      </c>
+      <c r="Q25" s="43">
+        <v>9.1</v>
+      </c>
+      <c r="R25" s="43">
+        <v>12.5</v>
+      </c>
+      <c r="S25" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="55" customFormat="1">
+      <c r="A26" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26" s="55">
+        <v>218.4</v>
+      </c>
+      <c r="E26" s="55">
         <v>1.89</v>
       </c>
-      <c r="F9" s="124">
-        <v>1.64</v>
-      </c>
-      <c r="G9" s="125" t="s">
-        <v>250</v>
-      </c>
-      <c r="H9" s="39">
-        <v>15</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="K9" s="40">
-        <v>3.1</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="M9" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O9" s="117">
-        <v>2.5</v>
-      </c>
-      <c r="P9" s="118">
-        <v>8.9</v>
-      </c>
-      <c r="Q9" s="117">
-        <v>10.5</v>
-      </c>
-      <c r="R9" s="41"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75">
-      <c r="A10" s="131" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>416</v>
-      </c>
-      <c r="C10" s="124" t="s">
-        <v>249</v>
-      </c>
-      <c r="D10" s="124">
-        <v>50</v>
-      </c>
-      <c r="E10" s="124">
-        <v>1.9</v>
-      </c>
-      <c r="F10" s="124">
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="124" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10" s="42">
-        <v>17</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="K10" s="43">
-        <v>3.1</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="N10" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="O10" s="84">
-        <v>1.6</v>
-      </c>
-      <c r="P10" s="102">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q10" s="84">
-        <v>10.1</v>
-      </c>
-      <c r="R10" s="44"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75">
-      <c r="A11" s="131" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>417</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="124">
-        <v>29.3</v>
-      </c>
-      <c r="E11" s="124">
-        <v>1.9</v>
-      </c>
-      <c r="F11" s="124">
-        <v>0.19</v>
-      </c>
-      <c r="G11" s="124" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="42">
-        <v>19</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="K11" s="43">
-        <v>3.2</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="O11" s="84">
-        <v>2.5</v>
-      </c>
-      <c r="P11" s="102">
-        <v>8.9</v>
-      </c>
-      <c r="Q11" s="84">
-        <v>11</v>
-      </c>
-      <c r="R11" s="44" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75">
-      <c r="A12" s="131" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="131" t="s">
-        <v>411</v>
-      </c>
-      <c r="C12" s="124" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="124">
-        <v>31.7</v>
-      </c>
-      <c r="E12" s="124">
-        <v>1.92</v>
-      </c>
-      <c r="F12" s="124">
-        <v>0.17</v>
-      </c>
-      <c r="G12" s="124" t="s">
-        <v>253</v>
-      </c>
-      <c r="H12" s="42">
-        <v>21</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="N12" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="O12" s="84">
-        <v>1.4</v>
-      </c>
-      <c r="P12" s="102">
-        <v>8.9</v>
-      </c>
-      <c r="Q12" s="84">
-        <v>10.1</v>
-      </c>
-      <c r="R12" s="44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75">
-      <c r="A13" s="131" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="131" t="s">
-        <v>393</v>
-      </c>
-      <c r="C13" s="124" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13" s="124">
-        <v>282.60000000000002</v>
-      </c>
-      <c r="E13" s="124">
-        <v>1.89</v>
-      </c>
-      <c r="F13" s="124">
-        <v>0.74</v>
-      </c>
-      <c r="G13" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="45">
-        <v>23</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="M13" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="O13" s="85">
-        <v>3.7</v>
-      </c>
-      <c r="P13" s="103">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q13" s="85">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="R13" s="47"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75">
-      <c r="A14" s="131" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="131" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>249</v>
-      </c>
-      <c r="D14" s="124">
-        <v>234.2</v>
-      </c>
-      <c r="E14" s="124">
-        <v>1.89</v>
-      </c>
-      <c r="F14" s="124">
-        <v>1.91</v>
-      </c>
-      <c r="G14" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="H14" s="48">
-        <v>25</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="M14" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="N14" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="O14" s="86">
-        <v>7.4</v>
-      </c>
-      <c r="P14" s="104">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="86">
-        <v>15.5</v>
-      </c>
-      <c r="R14" s="50"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75">
-      <c r="A15" s="131" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" s="131" t="s">
-        <v>395</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>249</v>
-      </c>
-      <c r="D15" s="124">
-        <v>225.8</v>
-      </c>
-      <c r="E15" s="124">
-        <v>1.87</v>
-      </c>
-      <c r="F15" s="124">
-        <v>0.43</v>
-      </c>
-      <c r="G15" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="H15" s="75">
-        <v>27</v>
-      </c>
-      <c r="I15" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="K15" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="L15" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="M15" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="N15" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="O15" s="87">
-        <v>2.7</v>
-      </c>
-      <c r="P15" s="105">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q15" s="87">
-        <v>11.3</v>
-      </c>
-      <c r="R15" s="77" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="130" t="s">
-        <v>265</v>
-      </c>
-      <c r="B16" s="130" t="s">
-        <v>418</v>
-      </c>
-      <c r="C16" s="128" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="128">
-        <v>453.9</v>
-      </c>
-      <c r="E16" s="128">
-        <v>1.9</v>
-      </c>
-      <c r="F16" s="128">
-        <v>1.7</v>
-      </c>
-      <c r="G16" s="128" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="24">
-        <v>28</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="N16" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="O16" s="78">
-        <v>3.5</v>
-      </c>
-      <c r="P16" s="96">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q16" s="78">
-        <v>11.9</v>
-      </c>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75">
-      <c r="A17" s="130" t="s">
-        <v>268</v>
-      </c>
-      <c r="B17" s="130" t="s">
-        <v>396</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" s="128">
-        <v>443.2</v>
-      </c>
-      <c r="E17" s="128">
-        <v>1.9</v>
-      </c>
-      <c r="F17" s="128">
-        <v>1.6</v>
-      </c>
-      <c r="G17" s="128" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="24">
-        <v>29</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="N17" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="O17" s="78">
-        <v>1.4</v>
-      </c>
-      <c r="P17" s="96">
-        <v>8.9</v>
-      </c>
-      <c r="Q17" s="78">
-        <v>9.9</v>
-      </c>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="130" t="s">
-        <v>270</v>
-      </c>
-      <c r="B18" s="130" t="s">
-        <v>397</v>
-      </c>
-      <c r="C18" s="128" t="s">
-        <v>249</v>
-      </c>
-      <c r="D18" s="128">
-        <v>434.4</v>
-      </c>
-      <c r="E18" s="128">
-        <v>1.9</v>
-      </c>
-      <c r="F18" s="128">
-        <v>1.3</v>
-      </c>
-      <c r="G18" s="128" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="24">
-        <v>30</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="N18" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="O18" s="78">
-        <v>3.3</v>
-      </c>
-      <c r="P18" s="96">
-        <v>9.1</v>
-      </c>
-      <c r="Q18" s="78">
-        <v>11</v>
-      </c>
-      <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="130" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" s="130" t="s">
-        <v>398</v>
-      </c>
-      <c r="C19" s="128" t="s">
-        <v>249</v>
-      </c>
-      <c r="D19" s="128">
-        <v>246.7</v>
-      </c>
-      <c r="E19" s="128">
-        <v>1.89</v>
-      </c>
-      <c r="F19" s="128">
-        <v>1.48</v>
-      </c>
-      <c r="G19" s="128" t="s">
-        <v>266</v>
-      </c>
-      <c r="H19" s="24">
-        <v>31</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="N19" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="O19" s="78">
-        <v>1.3</v>
-      </c>
-      <c r="P19" s="96">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q19" s="78">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="R19" s="26"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="130" t="s">
-        <v>273</v>
-      </c>
-      <c r="B20" s="130" t="s">
-        <v>419</v>
-      </c>
-      <c r="C20" s="128" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="128">
-        <v>320.8</v>
-      </c>
-      <c r="E20" s="128">
-        <v>1.89</v>
-      </c>
-      <c r="F20" s="128">
-        <v>2.08</v>
-      </c>
-      <c r="G20" s="128" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="24">
-        <v>33</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="25">
-        <v>6.2</v>
-      </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="N20" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="O20" s="78">
-        <v>1.2</v>
-      </c>
-      <c r="P20" s="96">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="78">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="R20" s="26"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="130" t="s">
-        <v>275</v>
-      </c>
-      <c r="B21" s="130" t="s">
-        <v>399</v>
-      </c>
-      <c r="C21" s="128" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21" s="128">
-        <v>315.89999999999998</v>
-      </c>
-      <c r="E21" s="128">
-        <v>1.88</v>
-      </c>
-      <c r="F21" s="128">
-        <v>1.62</v>
-      </c>
-      <c r="G21" s="128" t="s">
-        <v>276</v>
-      </c>
-      <c r="H21" s="24">
-        <v>36</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="N21" s="116" t="s">
-        <v>276</v>
-      </c>
-      <c r="O21" s="117">
-        <v>1.4</v>
-      </c>
-      <c r="P21" s="118">
-        <v>8.9</v>
-      </c>
-      <c r="Q21" s="117">
-        <v>10</v>
-      </c>
-      <c r="R21" s="26"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.75">
-      <c r="A22" s="131" t="s">
-        <v>278</v>
-      </c>
-      <c r="B22" s="131" t="s">
-        <v>425</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="124">
-        <v>450.6</v>
-      </c>
-      <c r="E22" s="124">
-        <v>1.91</v>
-      </c>
-      <c r="F22" s="124">
-        <v>0.9</v>
-      </c>
-      <c r="G22" s="125" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" s="21">
-        <v>38</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="O22" s="12">
-        <v>3</v>
-      </c>
-      <c r="P22" s="106">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q22" s="12">
-        <v>11.3</v>
-      </c>
-      <c r="R22" s="22"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75">
-      <c r="A23" s="131" t="s">
-        <v>281</v>
-      </c>
-      <c r="B23" s="131" t="s">
-        <v>422</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>259</v>
-      </c>
-      <c r="D23" s="124">
-        <v>386.2</v>
-      </c>
-      <c r="E23" s="124">
-        <v>1.9</v>
-      </c>
-      <c r="F23" s="124">
-        <v>1.76</v>
-      </c>
-      <c r="G23" s="125" t="s">
-        <v>276</v>
-      </c>
-      <c r="H23" s="24">
-        <v>40</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="O23" s="78">
-        <v>1.7</v>
-      </c>
-      <c r="P23" s="96">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q23" s="78">
-        <v>9.4</v>
-      </c>
-      <c r="R23" s="26"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="130" t="s">
-        <v>284</v>
-      </c>
-      <c r="B24" s="130" t="s">
-        <v>400</v>
-      </c>
-      <c r="C24" s="128" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="128">
-        <v>240.2</v>
-      </c>
-      <c r="E24" s="128">
-        <v>1.88</v>
-      </c>
-      <c r="F24" s="128">
-        <v>1.6</v>
-      </c>
-      <c r="G24" s="128" t="s">
-        <v>276</v>
-      </c>
-      <c r="H24" s="24">
-        <v>42</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="K24" s="119" t="s">
-        <v>285</v>
-      </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="N24" s="116" t="s">
-        <v>276</v>
-      </c>
-      <c r="O24" s="78">
-        <v>1.3</v>
-      </c>
-      <c r="P24" s="96">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="Q24" s="78">
-        <v>9.4</v>
-      </c>
-      <c r="R24" s="26"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="130" t="s">
-        <v>286</v>
-      </c>
-      <c r="B25" s="130" t="s">
-        <v>401</v>
-      </c>
-      <c r="C25" s="128" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="128">
-        <v>231.8</v>
-      </c>
-      <c r="E25" s="128">
-        <v>1.89</v>
-      </c>
-      <c r="F25" s="128">
-        <v>0.8</v>
-      </c>
-      <c r="G25" s="128" t="s">
+      <c r="F26" s="55">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G26" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="H25" s="51">
-        <v>45</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="K25" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="L25" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="M25" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="N25" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="O25" s="88">
-        <v>1.3</v>
-      </c>
-      <c r="P25" s="107">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="Q25" s="88">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="R25" s="53" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="130" t="s">
-        <v>289</v>
-      </c>
-      <c r="B26" s="130" t="s">
-        <v>402</v>
-      </c>
-      <c r="C26" s="128" t="s">
-        <v>290</v>
-      </c>
-      <c r="D26" s="128">
-        <v>218.4</v>
-      </c>
-      <c r="E26" s="128">
-        <v>1.89</v>
-      </c>
-      <c r="F26" s="128">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="G26" s="128" t="s">
-        <v>287</v>
-      </c>
-      <c r="H26" s="54">
+      <c r="H26" s="55">
         <v>46</v>
       </c>
       <c r="I26" s="55" t="s">
@@ -4034,211 +4122,224 @@
         <v>234</v>
       </c>
       <c r="M26" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="N26" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="N26" s="116" t="s">
+      <c r="O26" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="O26" s="89">
+      <c r="P26" s="55">
         <v>5.9</v>
       </c>
-      <c r="P26" s="108">
+      <c r="Q26" s="55">
         <v>8.6</v>
       </c>
-      <c r="Q26" s="89">
+      <c r="R26" s="55">
         <v>9.5</v>
       </c>
-      <c r="R26" s="56" t="s">
+      <c r="S26" s="55" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="130" t="s">
-        <v>292</v>
-      </c>
-      <c r="B27" s="130" t="s">
-        <v>403</v>
-      </c>
-      <c r="C27" s="128" t="s">
+    <row r="27" spans="1:19" s="64" customFormat="1">
+      <c r="A27" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="64">
+        <v>88.1</v>
+      </c>
+      <c r="E27" s="64">
+        <v>1.88</v>
+      </c>
+      <c r="F27" s="64">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="H27" s="64">
+        <v>52</v>
+      </c>
+      <c r="I27" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="M27" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N27" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="P27" s="64">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="64">
+        <v>8.9</v>
+      </c>
+      <c r="R27" s="64">
+        <v>9.5</v>
+      </c>
+      <c r="S27" s="64" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="76" customFormat="1">
+      <c r="A28" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="76">
+        <v>225.8</v>
+      </c>
+      <c r="E28" s="76">
+        <v>1.87</v>
+      </c>
+      <c r="F28" s="76">
+        <v>0.43</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" s="76">
+        <v>27</v>
+      </c>
+      <c r="I28" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="N28" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="P28" s="76">
+        <v>2.7</v>
+      </c>
+      <c r="Q28" s="76">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R28" s="76">
+        <v>11.3</v>
+      </c>
+      <c r="S28" s="76" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="61" customFormat="1">
+      <c r="A29" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="C29" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="D27" s="128">
-        <v>368.7</v>
-      </c>
-      <c r="E27" s="128">
+      <c r="D29" s="61">
+        <v>430.5</v>
+      </c>
+      <c r="E29" s="61">
         <v>1.89</v>
       </c>
-      <c r="F27" s="128">
-        <v>0.97</v>
-      </c>
-      <c r="G27" s="128" t="s">
+      <c r="F29" s="61">
+        <v>1.02</v>
+      </c>
+      <c r="G29" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="H27" s="57">
-        <v>48</v>
-      </c>
-      <c r="I27" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="58" t="s">
+      <c r="H29" s="61">
+        <v>50</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="K27" s="58" t="s">
+      <c r="K29" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="L27" s="58" t="s">
+      <c r="L29" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="M27" s="58" t="s">
+      <c r="M29" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="N29" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="N27" s="116" t="s">
+      <c r="O29" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="O27" s="90">
-        <v>1.2</v>
-      </c>
-      <c r="P27" s="109">
-        <v>8.9</v>
-      </c>
-      <c r="Q27" s="90" t="s">
-        <v>293</v>
-      </c>
-      <c r="R27" s="59"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="130" t="s">
-        <v>294</v>
-      </c>
-      <c r="B28" s="130" t="s">
-        <v>404</v>
-      </c>
-      <c r="C28" s="128" t="s">
+      <c r="P29" s="61">
+        <v>1.7</v>
+      </c>
+      <c r="Q29" s="61">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R29" s="61">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="70" customFormat="1">
+      <c r="A30" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="C30" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="128">
-        <v>430.5</v>
-      </c>
-      <c r="E28" s="128">
-        <v>1.89</v>
-      </c>
-      <c r="F28" s="128">
-        <v>1.02</v>
-      </c>
-      <c r="G28" s="128" t="s">
+      <c r="D30" s="70">
+        <v>101.5</v>
+      </c>
+      <c r="E30" s="70">
+        <v>1.82</v>
+      </c>
+      <c r="F30" s="70">
+        <v>1.01</v>
+      </c>
+      <c r="G30" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="H28" s="60">
-        <v>50</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="K28" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="L28" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="M28" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="N28" s="116" t="s">
-        <v>287</v>
-      </c>
-      <c r="O28" s="91">
-        <v>1.7</v>
-      </c>
-      <c r="P28" s="110">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="Q28" s="91">
-        <v>10.4</v>
-      </c>
-      <c r="R28" s="62"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="130" t="s">
-        <v>295</v>
-      </c>
-      <c r="B29" s="130" t="s">
-        <v>405</v>
-      </c>
-      <c r="C29" s="128" t="s">
-        <v>290</v>
-      </c>
-      <c r="D29" s="128">
-        <v>88.1</v>
-      </c>
-      <c r="E29" s="128">
-        <v>1.88</v>
-      </c>
-      <c r="F29" s="128">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G29" s="128" t="s">
-        <v>287</v>
-      </c>
-      <c r="H29" s="63">
-        <v>52</v>
-      </c>
-      <c r="I29" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="K29" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="L29" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="M29" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="N29" s="116" t="s">
-        <v>287</v>
-      </c>
-      <c r="O29" s="92">
-        <v>2</v>
-      </c>
-      <c r="P29" s="111">
-        <v>8.9</v>
-      </c>
-      <c r="Q29" s="92">
-        <v>9.5</v>
-      </c>
-      <c r="R29" s="65" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="B30" s="130" t="s">
-        <v>406</v>
-      </c>
-      <c r="C30" s="128" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="128">
-        <v>101.5</v>
-      </c>
-      <c r="E30" s="128">
-        <v>1.82</v>
-      </c>
-      <c r="F30" s="128">
-        <v>1.01</v>
-      </c>
-      <c r="G30" s="128" t="s">
-        <v>287</v>
-      </c>
-      <c r="H30" s="69">
+      <c r="H30" s="70">
         <v>54</v>
       </c>
       <c r="I30" s="70" t="s">
@@ -4254,384 +4355,473 @@
         <v>234</v>
       </c>
       <c r="M30" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="N30" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="N30" s="116" t="s">
+      <c r="O30" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="O30" s="94">
+      <c r="P30" s="70">
         <v>3.7</v>
       </c>
-      <c r="P30" s="113">
+      <c r="Q30" s="70">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Q30" s="94">
+      <c r="R30" s="70">
         <v>11.9</v>
       </c>
-      <c r="R30" s="71" t="s">
+      <c r="S30" s="70" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.75">
-      <c r="A31" s="131" t="s">
-        <v>297</v>
-      </c>
-      <c r="B31" s="131" t="s">
-        <v>420</v>
-      </c>
-      <c r="C31" s="124" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="124">
-        <v>122.5</v>
-      </c>
-      <c r="E31" s="124">
-        <v>1.86</v>
-      </c>
-      <c r="F31" s="124">
-        <v>1.95</v>
-      </c>
-      <c r="G31" s="125" t="s">
+    <row r="31" spans="1:19" s="46" customFormat="1">
+      <c r="A31" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" s="46">
+        <v>282.60000000000002</v>
+      </c>
+      <c r="E31" s="46">
+        <v>1.89</v>
+      </c>
+      <c r="F31" s="46">
+        <v>0.74</v>
+      </c>
+      <c r="G31" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="H31" s="21">
-        <v>60</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="H31" s="46">
+        <v>23</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>433</v>
+      </c>
+      <c r="N31" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="P31" s="46">
+        <v>3.7</v>
+      </c>
+      <c r="Q31" s="46">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R31" s="46">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="49" customFormat="1">
+      <c r="A32" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="49">
+        <v>234.2</v>
+      </c>
+      <c r="E32" s="49">
+        <v>1.89</v>
+      </c>
+      <c r="F32" s="49">
+        <v>1.91</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="H32" s="49">
+        <v>25</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" s="49" t="s">
+        <v>433</v>
+      </c>
+      <c r="N32" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="P32" s="49">
+        <v>7.4</v>
+      </c>
+      <c r="Q32" s="49">
+        <v>9</v>
+      </c>
+      <c r="R32" s="49">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="58" customFormat="1">
+      <c r="A33" s="58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="58">
+        <v>368.7</v>
+      </c>
+      <c r="E33" s="58">
+        <v>1.89</v>
+      </c>
+      <c r="F33" s="58">
+        <v>0.97</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="H33" s="58">
+        <v>48</v>
+      </c>
+      <c r="I33" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="K33" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="L33" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="M33" s="58" t="s">
+        <v>433</v>
+      </c>
+      <c r="N33" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="O33" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="P33" s="58">
+        <v>1.2</v>
+      </c>
+      <c r="Q33" s="58">
+        <v>8.9</v>
+      </c>
+      <c r="R33" s="58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="151" customFormat="1">
+      <c r="A34" s="151" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="151" t="s">
+        <v>429</v>
+      </c>
+      <c r="C34" s="151" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="151">
+        <v>300.8</v>
+      </c>
+      <c r="E34" s="151">
+        <v>1.88</v>
+      </c>
+      <c r="F34" s="151">
+        <v>1.92</v>
+      </c>
+      <c r="G34" s="151" t="s">
+        <v>316</v>
+      </c>
+      <c r="H34" s="151">
+        <v>75</v>
+      </c>
+      <c r="I34" s="151" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="151" t="s">
         <v>298</v>
       </c>
-      <c r="K31" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="K34" s="151">
+        <v>1</v>
+      </c>
+      <c r="L34" s="151" t="s">
+        <v>234</v>
+      </c>
+      <c r="N34" s="151" t="s">
         <v>227</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O31" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="P31" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="R31" s="22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15.75">
-      <c r="A32" s="131" t="s">
-        <v>301</v>
-      </c>
-      <c r="B32" s="131" t="s">
-        <v>421</v>
-      </c>
-      <c r="C32" s="124" t="s">
-        <v>290</v>
-      </c>
-      <c r="D32" s="124">
-        <v>90.5</v>
-      </c>
-      <c r="E32" s="124">
-        <v>1.85</v>
-      </c>
-      <c r="F32" s="124">
-        <v>0.65</v>
-      </c>
-      <c r="G32" s="125" t="s">
-        <v>250</v>
-      </c>
-      <c r="H32" s="21">
-        <v>63</v>
-      </c>
-      <c r="I32" s="1" t="s">
+    </row>
+    <row r="35" spans="1:19" s="28" customFormat="1">
+      <c r="A35" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" s="28">
+        <v>234</v>
+      </c>
+      <c r="D35" s="28">
+        <v>303</v>
+      </c>
+      <c r="E35" s="28">
+        <v>1.88</v>
+      </c>
+      <c r="F35" s="28">
+        <v>1.42</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" s="28">
+        <v>5</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="P35" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="Q35" s="28">
+        <v>8.9</v>
+      </c>
+      <c r="R35" s="28">
+        <v>9.4</v>
+      </c>
+      <c r="S35" s="28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="31" customFormat="1">
+      <c r="A36" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" s="31">
+        <v>237</v>
+      </c>
+      <c r="D36" s="31">
+        <v>411</v>
+      </c>
+      <c r="E36" s="31">
+        <v>1.91</v>
+      </c>
+      <c r="F36" s="31">
+        <v>1.59</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" s="31">
         <v>7</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K32" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="I36" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="M36" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="N36" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="P32" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="R32" s="22"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="138" t="s">
-        <v>314</v>
-      </c>
-      <c r="B33" s="138" t="s">
-        <v>423</v>
-      </c>
-      <c r="C33" s="139" t="s">
-        <v>315</v>
-      </c>
-      <c r="D33" s="139">
-        <v>120.4</v>
-      </c>
-      <c r="E33" s="139">
-        <v>1.87</v>
-      </c>
-      <c r="F33" s="140">
-        <v>2</v>
-      </c>
-      <c r="G33" s="141" t="s">
-        <v>316</v>
-      </c>
-      <c r="H33" s="139">
-        <v>65</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K33">
-        <v>3.2</v>
-      </c>
-      <c r="L33" t="s">
-        <v>256</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="O36" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="P36" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="Q36" s="31">
+        <v>9</v>
+      </c>
+      <c r="R36" s="31">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="S36" s="31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="34" customFormat="1">
+      <c r="A37" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="C37" s="34">
+        <v>220</v>
+      </c>
+      <c r="D37" s="34">
+        <v>446</v>
+      </c>
+      <c r="E37" s="34">
+        <v>1.91</v>
+      </c>
+      <c r="F37" s="34">
+        <v>1.84</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" s="34">
+        <v>9</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="N37" s="34" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="142" t="s">
-        <v>317</v>
-      </c>
-      <c r="B34" s="142" t="s">
-        <v>412</v>
-      </c>
-      <c r="C34" s="141" t="s">
-        <v>315</v>
-      </c>
-      <c r="D34" s="140">
-        <v>149.19999999999999</v>
-      </c>
-      <c r="E34" s="140">
-        <v>1.87</v>
-      </c>
-      <c r="F34" s="140">
-        <v>1.89</v>
-      </c>
-      <c r="G34" s="141" t="s">
-        <v>316</v>
-      </c>
-      <c r="H34" s="140">
-        <v>66</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K34" t="s">
-        <v>233</v>
-      </c>
-      <c r="L34" t="s">
-        <v>234</v>
-      </c>
-      <c r="M34" s="1" t="s">
+      <c r="O37" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="P37" s="34">
+        <v>4.3</v>
+      </c>
+      <c r="Q37" s="34">
+        <v>8.5</v>
+      </c>
+      <c r="R37" s="34">
+        <v>12</v>
+      </c>
+      <c r="S37" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="116" customFormat="1" ht="15.75">
+      <c r="A38" s="152" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="152" t="s">
+        <v>425</v>
+      </c>
+      <c r="C38" s="152" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="152">
+        <v>450.6</v>
+      </c>
+      <c r="E38" s="152">
+        <v>1.91</v>
+      </c>
+      <c r="F38" s="152">
+        <v>0.9</v>
+      </c>
+      <c r="G38" s="153" t="s">
+        <v>276</v>
+      </c>
+      <c r="H38" s="116">
+        <v>38</v>
+      </c>
+      <c r="I38" s="116" t="s">
+        <v>279</v>
+      </c>
+      <c r="J38" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="K38" s="116" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" s="116" t="s">
+        <v>433</v>
+      </c>
+      <c r="N38" s="116" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="142" t="s">
-        <v>318</v>
-      </c>
-      <c r="B35" s="142" t="s">
-        <v>426</v>
-      </c>
-      <c r="C35" s="141" t="s">
-        <v>319</v>
-      </c>
-      <c r="D35" s="140">
-        <v>17</v>
-      </c>
-      <c r="E35" s="140">
-        <v>1.85</v>
-      </c>
-      <c r="F35" s="140">
-        <v>0.32</v>
-      </c>
-      <c r="G35" s="141" t="s">
-        <v>316</v>
-      </c>
-      <c r="H35" s="140">
-        <v>68</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K35">
-        <v>3.1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>254</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="142" t="s">
-        <v>320</v>
-      </c>
-      <c r="B36" s="142" t="s">
-        <v>427</v>
-      </c>
-      <c r="C36" s="141" t="s">
-        <v>319</v>
-      </c>
-      <c r="D36" s="140">
-        <v>223.6</v>
-      </c>
-      <c r="E36" s="140">
-        <v>1.87</v>
-      </c>
-      <c r="F36" s="140">
-        <v>1.92</v>
-      </c>
-      <c r="G36" s="141" t="s">
-        <v>316</v>
-      </c>
-      <c r="H36" s="140">
-        <v>70</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K36">
-        <v>3.2</v>
-      </c>
-      <c r="L36" t="s">
-        <v>256</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="142" t="s">
-        <v>321</v>
-      </c>
-      <c r="B37" s="142" t="s">
-        <v>428</v>
-      </c>
-      <c r="C37" s="141" t="s">
-        <v>322</v>
-      </c>
-      <c r="D37" s="140">
-        <v>173.7</v>
-      </c>
-      <c r="E37" s="140">
-        <v>1.88</v>
-      </c>
-      <c r="F37" s="140">
-        <v>2.29</v>
-      </c>
-      <c r="G37" s="141" t="s">
-        <v>316</v>
-      </c>
-      <c r="H37" s="144">
-        <v>72</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K37">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L37" t="s">
-        <v>391</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="142" t="s">
-        <v>323</v>
-      </c>
-      <c r="B38" s="142" t="s">
-        <v>429</v>
-      </c>
-      <c r="C38" s="141" t="s">
-        <v>315</v>
-      </c>
-      <c r="D38" s="140">
-        <v>300.8</v>
-      </c>
-      <c r="E38" s="140">
-        <v>1.88</v>
-      </c>
-      <c r="F38" s="140">
-        <v>1.92</v>
-      </c>
-      <c r="G38" s="141" t="s">
-        <v>316</v>
-      </c>
-      <c r="H38" s="144">
-        <v>75</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>234</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="G39" s="114"/>
+      <c r="O38" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="P38" s="116">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="116">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R38" s="116">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="G39" s="11"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S39">
+    <sortCondition ref="I1:I39"/>
+  </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4643,7 +4833,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8402,7 +8592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9648,11 +9838,2274 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA8C25-2A62-4AA5-8316-3C62AA76770C}">
+  <dimension ref="A1:P89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <col min="9" max="10" width="31.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="M1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P1" s="134" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="21">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="24">
+        <v>3</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="78">
+        <v>2</v>
+      </c>
+      <c r="I3" s="96">
+        <v>9</v>
+      </c>
+      <c r="J3" s="78">
+        <v>10</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="M3" s="114">
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="24">
+        <v>4</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="78"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5" s="78">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I5" s="96">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J5" s="78">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="M5" s="114">
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="24">
+        <v>2</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H6" s="78"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="24">
+        <v>32</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="25">
+        <v>6.2</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H7" s="78">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="96">
+        <v>8.9</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="26"/>
+      <c r="M7" s="114">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="24">
+        <v>33</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="25">
+        <v>6.2</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="78">
+        <v>1.2</v>
+      </c>
+      <c r="I8" s="96">
+        <v>9</v>
+      </c>
+      <c r="J8" s="78">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="M8" s="114">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="24">
+        <v>34</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="25">
+        <v>7.1</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H9" s="78">
+        <v>2.7</v>
+      </c>
+      <c r="I9" s="96"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="26"/>
+      <c r="M9" s="114">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="24">
+        <v>35</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="25">
+        <v>7.1</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="78"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="24">
+        <v>42</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H11" s="78">
+        <v>1.3</v>
+      </c>
+      <c r="I11" s="96">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J11" s="78">
+        <v>9.4</v>
+      </c>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="24">
+        <v>43</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H12" s="78"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="24">
+        <v>40</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="78">
+        <v>1.7</v>
+      </c>
+      <c r="I13" s="96">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J13" s="78">
+        <v>9.4</v>
+      </c>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="24">
+        <v>41</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="78"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="24">
+        <v>29</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="25">
+        <v>7.2</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="78">
+        <v>1.4</v>
+      </c>
+      <c r="I15" s="96">
+        <v>8.9</v>
+      </c>
+      <c r="J15" s="78">
+        <v>9.9</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="M15" s="114">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="24">
+        <v>28</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="78">
+        <v>3.5</v>
+      </c>
+      <c r="I16" s="96">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J16" s="78">
+        <v>11.9</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="M16" s="114">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="24">
+        <v>30</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="25">
+        <v>8.1</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="I17" s="96">
+        <v>9.1</v>
+      </c>
+      <c r="J17" s="78">
+        <v>11</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="24">
+        <v>31</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="25">
+        <v>8.1</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H18" s="78">
+        <v>1.3</v>
+      </c>
+      <c r="I18" s="96">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J18" s="78">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="M18" s="114">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="24">
+        <v>36</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G19" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" s="117">
+        <v>1.4</v>
+      </c>
+      <c r="I19" s="118">
+        <v>8.9</v>
+      </c>
+      <c r="J19" s="117">
+        <v>10</v>
+      </c>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="24">
+        <v>37</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="H20" s="78"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="24">
+        <v>11</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="143" t="s">
+        <v>349</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="78">
+        <v>4.2</v>
+      </c>
+      <c r="I21" s="96">
+        <v>9</v>
+      </c>
+      <c r="J21" s="78">
+        <v>11</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M21" s="114">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="24">
+        <v>12</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="143" t="s">
+        <v>349</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="78"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="30">
+        <v>7</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" s="80">
+        <v>1.4</v>
+      </c>
+      <c r="I23" s="98">
+        <v>9</v>
+      </c>
+      <c r="J23" s="80">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="M23" s="114">
+        <v>45347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="30">
+        <v>8</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" s="80"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="21">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="I25" s="106">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J25" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="36">
+        <v>13</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" s="82"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="36">
+        <v>14</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27" s="82">
+        <v>1</v>
+      </c>
+      <c r="I27" s="100">
+        <v>8.9</v>
+      </c>
+      <c r="J27" s="82">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="M27" s="114">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="39">
+        <v>15</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="40">
+        <v>3.1</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="117">
+        <v>2.5</v>
+      </c>
+      <c r="I28" s="118">
+        <v>8.9</v>
+      </c>
+      <c r="J28" s="117">
+        <v>10.5</v>
+      </c>
+      <c r="K28" s="41"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="39">
+        <v>16</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="40">
+        <v>3.1</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="83"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="51">
+        <v>44</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="H30" s="88"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="L30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="51">
+        <v>45</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="H31" s="88">
+        <v>1.3</v>
+      </c>
+      <c r="I31" s="107">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J31" s="88">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K31" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="42">
+        <v>17</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="43">
+        <v>3.1</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H32" s="84">
+        <v>1.6</v>
+      </c>
+      <c r="I32" s="102">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J32" s="84">
+        <v>10.1</v>
+      </c>
+      <c r="K32" s="44"/>
+      <c r="M32" s="115">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="42">
+        <v>18</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="43">
+        <v>3.1</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H33" s="84"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="44"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="42">
+        <v>19</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H34" s="84">
+        <v>2.5</v>
+      </c>
+      <c r="I34" s="102">
+        <v>8.9</v>
+      </c>
+      <c r="J34" s="84">
+        <v>11</v>
+      </c>
+      <c r="K34" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="M34" s="115">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="42">
+        <v>20</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="43">
+        <v>3.2</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="84"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="44"/>
+      <c r="M35" s="115"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="21">
+        <v>60</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36" s="12">
+        <v>5.2</v>
+      </c>
+      <c r="I36" s="106">
+        <v>9.1</v>
+      </c>
+      <c r="J36" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="M36" s="114">
+        <v>45342</v>
+      </c>
+      <c r="N36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="21">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="42">
+        <v>21</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H38" s="84">
+        <v>1.4</v>
+      </c>
+      <c r="I38" s="102">
+        <v>8.9</v>
+      </c>
+      <c r="J38" s="84">
+        <v>10.1</v>
+      </c>
+      <c r="K38" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="M38" s="115">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="42">
+        <v>22</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H39" s="84"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="54">
+        <v>46</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="H40" s="89">
+        <v>5.9</v>
+      </c>
+      <c r="I40" s="108">
+        <v>8.6</v>
+      </c>
+      <c r="J40" s="89">
+        <v>9.5</v>
+      </c>
+      <c r="K40" s="56" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="54">
+        <v>47</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>287</v>
+      </c>
+      <c r="H41" s="89"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="56"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="63">
+        <v>52</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="G42" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="H42" s="92">
+        <v>2</v>
+      </c>
+      <c r="I42" s="111">
+        <v>8.9</v>
+      </c>
+      <c r="J42" s="92">
+        <v>9.5</v>
+      </c>
+      <c r="K42" s="65" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="66">
+        <v>53</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>227</v>
+      </c>
+      <c r="G43" s="67" t="s">
+        <v>287</v>
+      </c>
+      <c r="H43" s="93"/>
+      <c r="I43" s="112"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="68" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="75">
+        <v>27</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="76" t="s">
+        <v>246</v>
+      </c>
+      <c r="E44" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="H44" s="87">
+        <v>2.7</v>
+      </c>
+      <c r="I44" s="105">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J44" s="87">
+        <v>11.3</v>
+      </c>
+      <c r="K44" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="M44" s="114">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="60">
+        <v>50</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="H45" s="91">
+        <v>1.7</v>
+      </c>
+      <c r="I45" s="110">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J45" s="91">
+        <v>10.4</v>
+      </c>
+      <c r="K45" s="62"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="60">
+        <v>51</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="G46" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="H46" s="91"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="62"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="69">
+        <v>54</v>
+      </c>
+      <c r="B47" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="G47" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="H47" s="94">
+        <v>3.7</v>
+      </c>
+      <c r="I47" s="113">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J47" s="94">
+        <v>11.9</v>
+      </c>
+      <c r="K47" s="71" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="45" t="s">
+        <v>357</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="H48" s="85">
+        <v>3.7</v>
+      </c>
+      <c r="I48" s="103">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J48" s="85">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K48" s="47"/>
+      <c r="M48" s="114">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="45">
+        <v>24</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="H49" s="85"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="47"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="48">
+        <v>25</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="G50" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" s="86">
+        <v>7.4</v>
+      </c>
+      <c r="I50" s="104">
+        <v>9</v>
+      </c>
+      <c r="J50" s="86">
+        <v>15.5</v>
+      </c>
+      <c r="K50" s="50"/>
+      <c r="M50" s="114">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="48">
+        <v>26</v>
+      </c>
+      <c r="B51" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="G51" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="H51" s="86"/>
+      <c r="I51" s="104"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="50"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="57">
+        <v>48</v>
+      </c>
+      <c r="B52" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="H52" s="90">
+        <v>1.2</v>
+      </c>
+      <c r="I52" s="109">
+        <v>8.9</v>
+      </c>
+      <c r="J52" s="90" t="s">
+        <v>293</v>
+      </c>
+      <c r="K52" s="59"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="57">
+        <v>49</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="H53" s="90"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="59"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="27">
+        <v>5</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" s="79">
+        <v>0.8</v>
+      </c>
+      <c r="I54" s="97">
+        <v>8.9</v>
+      </c>
+      <c r="J54" s="79">
+        <v>9.4</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M54" s="114">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="27">
+        <v>6</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="H55" s="79"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="29"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="33">
+        <v>9</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="H56" s="34">
+        <v>4.3</v>
+      </c>
+      <c r="I56" s="34">
+        <v>8.5</v>
+      </c>
+      <c r="J56" s="34">
+        <v>12</v>
+      </c>
+      <c r="K56" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="M56" s="115">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="33">
+        <v>10</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G57" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="35"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="21">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3</v>
+      </c>
+      <c r="I58" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J58" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="K58" s="22"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="21">
+        <v>39</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="K59" s="22"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="21">
+        <v>55</v>
+      </c>
+      <c r="K60" s="22"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="21">
+        <v>56</v>
+      </c>
+      <c r="K61" s="22"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="21">
+        <v>58</v>
+      </c>
+      <c r="K62" s="22"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="21">
+        <v>59</v>
+      </c>
+      <c r="K63" s="22"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="21">
+        <v>62</v>
+      </c>
+      <c r="K64" s="22"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1">
+        <v>65</v>
+      </c>
+      <c r="B71" s="133" t="s">
+        <v>360</v>
+      </c>
+      <c r="C71" s="133" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" s="133">
+        <v>3.2</v>
+      </c>
+      <c r="E71" s="133" t="s">
+        <v>361</v>
+      </c>
+      <c r="F71" s="133" t="s">
+        <v>227</v>
+      </c>
+      <c r="G71" s="133" t="s">
+        <v>362</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J71" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1">
+        <v>66</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1">
+        <v>67</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1">
+        <v>68</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" s="28">
+        <v>3.1</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1">
+        <v>69</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1">
+        <v>70</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1">
+        <v>71</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="45">
+      <c r="A80" s="1">
+        <v>72</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="28">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K80" s="135" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1">
+        <v>73</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D81" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="1">
+        <v>74</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="75">
+      <c r="A84" s="1">
+        <v>75</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E84" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="H84" s="135" t="s">
+        <v>384</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J84" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="K84" s="135" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="B89" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N65" xr:uid="{DDBA8C25-2A62-4AA5-8316-3C62AA76770C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N65">
+      <sortCondition ref="B1:B65"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BFA150-CC4D-E442-B6CE-BB84AE5A142F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScale="50" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9662,11 +12115,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -10925,12 +13378,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F6BD1B-D128-2C4E-B418-A3BF87210BB0}">
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -12902,13 +15355,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C63" sqref="C63"/>
+      <selection pane="topRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14296,7 +16749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G200"/>
   <sheetViews>
@@ -15539,2275 +17992,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBA8C25-2A62-4AA5-8316-3C62AA76770C}">
-  <dimension ref="A1:P89"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="19" style="1" customWidth="1"/>
-    <col min="9" max="10" width="31.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="36" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="72" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>217</v>
-      </c>
-      <c r="H1" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="I1" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="J1" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="M1" t="s">
-        <v>340</v>
-      </c>
-      <c r="P1" s="134" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="21">
-        <v>57</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="24">
-        <v>3</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H3" s="78">
-        <v>2</v>
-      </c>
-      <c r="I3" s="96">
-        <v>9</v>
-      </c>
-      <c r="J3" s="78">
-        <v>10</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="M3" s="114">
-        <v>45335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="24">
-        <v>4</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4" s="25">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="24">
-        <v>1</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" s="78">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I5" s="96">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J5" s="78">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="M5" s="114">
-        <v>45335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="24">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="25">
-        <v>5.2</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="24">
-        <v>32</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="25">
-        <v>6.2</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="78">
-        <v>1.5</v>
-      </c>
-      <c r="I7" s="96">
-        <v>8.9</v>
-      </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="26"/>
-      <c r="M7" s="114">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="24">
-        <v>33</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="25">
-        <v>6.2</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H8" s="78">
-        <v>1.2</v>
-      </c>
-      <c r="I8" s="96">
-        <v>9</v>
-      </c>
-      <c r="J8" s="78">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="M8" s="114">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="24">
-        <v>34</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="25">
-        <v>7.1</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="78">
-        <v>2.7</v>
-      </c>
-      <c r="I9" s="96"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="26"/>
-      <c r="M9" s="114">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="24">
-        <v>35</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="25">
-        <v>7.1</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="24">
-        <v>42</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="119" t="s">
-        <v>342</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="H11" s="78">
-        <v>1.3</v>
-      </c>
-      <c r="I11" s="96">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J11" s="78">
-        <v>9.4</v>
-      </c>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="24">
-        <v>43</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="24">
-        <v>40</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="H13" s="78">
-        <v>1.7</v>
-      </c>
-      <c r="I13" s="96">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J13" s="78">
-        <v>9.4</v>
-      </c>
-      <c r="K13" s="26"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="24">
-        <v>41</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="24">
-        <v>29</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="25">
-        <v>7.2</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="78">
-        <v>1.4</v>
-      </c>
-      <c r="I15" s="96">
-        <v>8.9</v>
-      </c>
-      <c r="J15" s="78">
-        <v>9.9</v>
-      </c>
-      <c r="K15" s="26"/>
-      <c r="M15" s="114">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="24">
-        <v>28</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="78">
-        <v>3.5</v>
-      </c>
-      <c r="I16" s="96">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J16" s="78">
-        <v>11.9</v>
-      </c>
-      <c r="K16" s="26"/>
-      <c r="M16" s="114">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="24">
-        <v>30</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H17" s="78">
-        <v>3.3</v>
-      </c>
-      <c r="I17" s="96">
-        <v>9.1</v>
-      </c>
-      <c r="J17" s="78">
-        <v>11</v>
-      </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="24">
-        <v>31</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="25">
-        <v>8.1</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H18" s="78">
-        <v>1.3</v>
-      </c>
-      <c r="I18" s="96">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J18" s="78">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K18" s="26"/>
-      <c r="M18" s="114">
-        <v>45332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="24">
-        <v>36</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D19" s="25">
-        <v>3.1</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="116" t="s">
-        <v>276</v>
-      </c>
-      <c r="H19" s="117">
-        <v>1.4</v>
-      </c>
-      <c r="I19" s="118">
-        <v>8.9</v>
-      </c>
-      <c r="J19" s="117">
-        <v>10</v>
-      </c>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="24">
-        <v>37</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="25">
-        <v>3.1</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="24">
-        <v>11</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="143" t="s">
-        <v>349</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" s="78">
-        <v>4.2</v>
-      </c>
-      <c r="I21" s="96">
-        <v>9</v>
-      </c>
-      <c r="J21" s="78">
-        <v>11</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="M21" s="114">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="24">
-        <v>12</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D22" s="143" t="s">
-        <v>349</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="26"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="30">
-        <v>7</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="31">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="H23" s="80">
-        <v>1.4</v>
-      </c>
-      <c r="I23" s="98">
-        <v>9</v>
-      </c>
-      <c r="J23" s="80">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="M23" s="114">
-        <v>45347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="30">
-        <v>8</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24" s="31">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>351</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="H24" s="80"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="32"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="21">
-        <v>63</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H25" s="12">
-        <v>1.8</v>
-      </c>
-      <c r="I25" s="106">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J25" s="12">
-        <v>10.1</v>
-      </c>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="36">
-        <v>13</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="H26" s="82"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="36">
-        <v>14</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="H27" s="82">
-        <v>1</v>
-      </c>
-      <c r="I27" s="100">
-        <v>8.9</v>
-      </c>
-      <c r="J27" s="82">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K27" s="38"/>
-      <c r="M27" s="114">
-        <v>45342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="39">
-        <v>15</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="40">
-        <v>3.1</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="116" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="117">
-        <v>2.5</v>
-      </c>
-      <c r="I28" s="118">
-        <v>8.9</v>
-      </c>
-      <c r="J28" s="117">
-        <v>10.5</v>
-      </c>
-      <c r="K28" s="41"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="39">
-        <v>16</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="40">
-        <v>3.1</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="F29" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="H29" s="83"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="41"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="51">
-        <v>44</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="H30" s="88"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="L30" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="51">
-        <v>45</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="H31" s="88">
-        <v>1.3</v>
-      </c>
-      <c r="I31" s="107">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J31" s="88">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="K31" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="L31" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="42">
-        <v>17</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="D32" s="43">
-        <v>3.1</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="H32" s="84">
-        <v>1.6</v>
-      </c>
-      <c r="I32" s="102">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J32" s="84">
-        <v>10.1</v>
-      </c>
-      <c r="K32" s="44"/>
-      <c r="M32" s="115">
-        <v>45345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="42">
-        <v>18</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" s="43">
-        <v>3.1</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="44"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="42">
-        <v>19</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" s="43">
-        <v>3.2</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="H34" s="84">
-        <v>2.5</v>
-      </c>
-      <c r="I34" s="102">
-        <v>8.9</v>
-      </c>
-      <c r="J34" s="84">
-        <v>11</v>
-      </c>
-      <c r="K34" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="M34" s="115">
-        <v>45345</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="42">
-        <v>20</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="43">
-        <v>3.2</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="44"/>
-      <c r="M35" s="115"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="21">
-        <v>60</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D36" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H36" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="I36" s="106">
-        <v>9.1</v>
-      </c>
-      <c r="J36" s="12">
-        <v>12.5</v>
-      </c>
-      <c r="K36" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="M36" s="114">
-        <v>45342</v>
-      </c>
-      <c r="N36" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="21">
-        <v>61</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="42">
-        <v>21</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="H38" s="84">
-        <v>1.4</v>
-      </c>
-      <c r="I38" s="102">
-        <v>8.9</v>
-      </c>
-      <c r="J38" s="84">
-        <v>10.1</v>
-      </c>
-      <c r="K38" s="44" t="s">
-        <v>260</v>
-      </c>
-      <c r="M38" s="115">
-        <v>45345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="42">
-        <v>22</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="H39" s="84"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="44" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="54">
-        <v>46</v>
-      </c>
-      <c r="B40" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="E40" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="H40" s="89">
-        <v>5.9</v>
-      </c>
-      <c r="I40" s="108">
-        <v>8.6</v>
-      </c>
-      <c r="J40" s="89">
-        <v>9.5</v>
-      </c>
-      <c r="K40" s="56" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="54">
-        <v>47</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="E41" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="F41" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" s="55" t="s">
-        <v>287</v>
-      </c>
-      <c r="H41" s="89"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="56"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="63">
-        <v>52</v>
-      </c>
-      <c r="B42" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="E42" s="64" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="H42" s="92">
-        <v>2</v>
-      </c>
-      <c r="I42" s="111">
-        <v>8.9</v>
-      </c>
-      <c r="J42" s="92">
-        <v>9.5</v>
-      </c>
-      <c r="K42" s="65" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="66">
-        <v>53</v>
-      </c>
-      <c r="B43" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="D43" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="E43" s="67" t="s">
-        <v>234</v>
-      </c>
-      <c r="F43" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="G43" s="67" t="s">
-        <v>287</v>
-      </c>
-      <c r="H43" s="93"/>
-      <c r="I43" s="112"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="68" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="75">
-        <v>27</v>
-      </c>
-      <c r="B44" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="76" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="E44" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="F44" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="76" t="s">
-        <v>247</v>
-      </c>
-      <c r="H44" s="87">
-        <v>2.7</v>
-      </c>
-      <c r="I44" s="105">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J44" s="87">
-        <v>11.3</v>
-      </c>
-      <c r="K44" s="77" t="s">
-        <v>264</v>
-      </c>
-      <c r="M44" s="114">
-        <v>45342</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="60">
-        <v>50</v>
-      </c>
-      <c r="B45" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="F45" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="H45" s="91">
-        <v>1.7</v>
-      </c>
-      <c r="I45" s="110">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J45" s="91">
-        <v>10.4</v>
-      </c>
-      <c r="K45" s="62"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="60">
-        <v>51</v>
-      </c>
-      <c r="B46" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="F46" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="G46" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="H46" s="91"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="62"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="69">
-        <v>54</v>
-      </c>
-      <c r="B47" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="E47" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="F47" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="G47" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="H47" s="94">
-        <v>3.7</v>
-      </c>
-      <c r="I47" s="113">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J47" s="94">
-        <v>11.9</v>
-      </c>
-      <c r="K47" s="71" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="45" t="s">
-        <v>357</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F48" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="G48" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="H48" s="85">
-        <v>3.7</v>
-      </c>
-      <c r="I48" s="103">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J48" s="85">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K48" s="47"/>
-      <c r="M48" s="114">
-        <v>45342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="45">
-        <v>24</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="E49" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F49" s="46" t="s">
-        <v>227</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="H49" s="85"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="47"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="48">
-        <v>25</v>
-      </c>
-      <c r="B50" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G50" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="H50" s="86">
-        <v>7.4</v>
-      </c>
-      <c r="I50" s="104">
-        <v>9</v>
-      </c>
-      <c r="J50" s="86">
-        <v>15.5</v>
-      </c>
-      <c r="K50" s="50"/>
-      <c r="M50" s="114">
-        <v>45342</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="48">
-        <v>26</v>
-      </c>
-      <c r="B51" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="49" t="s">
-        <v>246</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="F51" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G51" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="H51" s="86"/>
-      <c r="I51" s="104"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="50"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="57">
-        <v>48</v>
-      </c>
-      <c r="B52" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="E52" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="G52" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="H52" s="90">
-        <v>1.2</v>
-      </c>
-      <c r="I52" s="109">
-        <v>8.9</v>
-      </c>
-      <c r="J52" s="90" t="s">
-        <v>293</v>
-      </c>
-      <c r="K52" s="59"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="57">
-        <v>49</v>
-      </c>
-      <c r="B53" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="E53" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="G53" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="H53" s="90"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="90"/>
-      <c r="K53" s="59"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="27">
-        <v>5</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="H54" s="79">
-        <v>0.8</v>
-      </c>
-      <c r="I54" s="97">
-        <v>8.9</v>
-      </c>
-      <c r="J54" s="79">
-        <v>9.4</v>
-      </c>
-      <c r="K54" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="M54" s="114">
-        <v>45336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="27">
-        <v>6</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="H55" s="79"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="29"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="33">
-        <v>9</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="G56" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="H56" s="34">
-        <v>4.3</v>
-      </c>
-      <c r="I56" s="34">
-        <v>8.5</v>
-      </c>
-      <c r="J56" s="34">
-        <v>12</v>
-      </c>
-      <c r="K56" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="M56" s="115">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="33">
-        <v>10</v>
-      </c>
-      <c r="B57" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="G57" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="35"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="21">
-        <v>38</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H58" s="1">
-        <v>3</v>
-      </c>
-      <c r="I58" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J58" s="1">
-        <v>11.3</v>
-      </c>
-      <c r="K58" s="22"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="21">
-        <v>39</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K59" s="22"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="21">
-        <v>55</v>
-      </c>
-      <c r="K60" s="22"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="21">
-        <v>56</v>
-      </c>
-      <c r="K61" s="22"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="21">
-        <v>58</v>
-      </c>
-      <c r="K62" s="22"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="21">
-        <v>59</v>
-      </c>
-      <c r="K63" s="22"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="21">
-        <v>62</v>
-      </c>
-      <c r="K64" s="22"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1">
-        <v>65</v>
-      </c>
-      <c r="B71" s="133" t="s">
-        <v>360</v>
-      </c>
-      <c r="C71" s="133" t="s">
-        <v>298</v>
-      </c>
-      <c r="D71" s="133">
-        <v>3.2</v>
-      </c>
-      <c r="E71" s="133" t="s">
-        <v>361</v>
-      </c>
-      <c r="F71" s="133" t="s">
-        <v>227</v>
-      </c>
-      <c r="G71" s="133" t="s">
-        <v>362</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="J71" s="1">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1">
-        <v>66</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1">
-        <v>67</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1">
-        <v>68</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D74" s="28">
-        <v>3.1</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1">
-        <v>69</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D75" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1">
-        <v>70</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D77" s="28">
-        <v>3.2</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1">
-        <v>71</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D78" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="45">
-      <c r="A80" s="1">
-        <v>72</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D80" s="28">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>378</v>
-      </c>
-      <c r="F80" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="K80" s="135" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1">
-        <v>73</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D81" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1">
-        <v>74</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="75">
-      <c r="A84" s="1">
-        <v>75</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="E84" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="G84" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="H84" s="135" t="s">
-        <v>384</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="J84" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="K84" s="135" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="B89" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:N65" xr:uid="{DDBA8C25-2A62-4AA5-8316-3C62AA76770C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N65">
-      <sortCondition ref="B1:B65"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8804D43-60A5-4442-A085-6C79E5797BAB}">
   <dimension ref="A1:K200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -19061,7 +19252,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
